--- a/STAT_517/Project 04/DATA/leaf_Data.xlsx
+++ b/STAT_517/Project 04/DATA/leaf_Data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaisaroggeveen/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\school_projects\STAT_517\Project 04\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_286FF9925778847C53EBE3C7CA4955683EE26626" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14604" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -94,6 +95,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -361,16 +365,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,7 +391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -405,7 +409,7 @@
         <v>1.9491525423728813</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -423,7 +427,7 @@
         <v>1.8351648351648351</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -441,7 +445,7 @@
         <v>2.1224489795918369</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -459,7 +463,7 @@
         <v>2.1547619047619047</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -477,7 +481,7 @@
         <v>2.9692307692307693</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -495,7 +499,7 @@
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -513,7 +517,7 @@
         <v>1.9433962264150946</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -531,7 +535,7 @@
         <v>2.3023255813953489</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -549,7 +553,7 @@
         <v>1.411764705882353</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -567,7 +571,7 @@
         <v>1.846153846153846</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -585,7 +589,7 @@
         <v>2.064516129032258</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -603,7 +607,7 @@
         <v>1.4578313253012047</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -621,7 +625,7 @@
         <v>2.0161290322580645</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -639,7 +643,7 @@
         <v>1.9302325581395352</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -657,7 +661,7 @@
         <v>1.5333333333333334</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -675,7 +679,7 @@
         <v>1.6727272727272726</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -693,7 +697,7 @@
         <v>1.7096774193548385</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -711,7 +715,7 @@
         <v>1.1129032258064517</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -729,7 +733,7 @@
         <v>1.0337078651685392</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -747,7 +751,7 @@
         <v>1.1333333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -765,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -783,7 +787,7 @@
         <v>1.425</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -801,7 +805,7 @@
         <v>1.1372549019607843</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -819,7 +823,7 @@
         <v>1.696969696969697</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -837,7 +841,7 @@
         <v>1.0338983050847457</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -855,7 +859,7 @@
         <v>2.1707317073170733</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -873,7 +877,7 @@
         <v>1.4545454545454546</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
